--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:44:22+00:00</t>
+    <t>2025-12-05T08:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T08:48:00+00:00</t>
+    <t>2025-12-05T09:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:24:40+00:00</t>
+    <t>2025-12-29T09:23:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:23:18+00:00</t>
+    <t>2025-12-29T09:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T09:56:40+00:00</t>
+    <t>2025-12-29T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:13:00+00:00</t>
+    <t>2025-12-29T10:22:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:22:56+00:00</t>
+    <t>2025-12-29T10:23:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:23:39+00:00</t>
+    <t>2025-12-29T10:37:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:37:03+00:00</t>
+    <t>2025-12-29T10:57:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T10:57:12+00:00</t>
+    <t>2025-12-29T16:37:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:37:53+00:00</t>
+    <t>2025-12-29T16:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
+++ b/nr-update-priorities/ig/StructureDefinition-fr-core-address.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T16:39:07+00:00</t>
+    <t>2025-12-29T16:43:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Address</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Address|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -351,7 +351,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -973,7 +973,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.08203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="76.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
